--- a/biology/Botanique/Primula_denticulata/Primula_denticulata.xlsx
+++ b/biology/Botanique/Primula_denticulata/Primula_denticulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Primula denticulata est une espèce de plantes à fleurs de la famille des Primulacées, originaire de régions alpines humides de l'Asie, de l'Afghanistan à Tibet, la Birmanie et la Chine sud-orientale. C'est une herbacée vivace de plus en plus à 45 cm de haut et large, avec des rosettes de feuilles ovales et robustes tiges roulement sphérique ombelles de fleurs violettes à la fin du printemps et début de l'été. L'épithète spécifique denticulata signifie « petites dents », se référant aux bords des feuilles dentelées.
 Un sujet populaire de jardin pour un sol profond humide au soleil ou mi- ombre, P. denticulata et ses cultivars peut être cultivé de la graine. Il a gagné la Prix du Mérite de Jardin de Société Royale d'horticulture.
@@ -512,9 +524,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (17 avril 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (17 avril 2020) :
 sous-espèce Primula denticulata subsp. alta (Balf. f. &amp; Forrest) W.W. Sm. &amp; H.R. Fletcher
 sous-espèce Primula denticulata subsp. cyanocephala (Balf. f.) W.W. Sm. &amp; H.R. Fletcher
 sous-espèce Primula denticulata subsp. denticulata
